--- a/MatLAB/Datalogging/Turn Test/Turns & Segments.xlsx
+++ b/MatLAB/Datalogging/Turn Test/Turns & Segments.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Racecar-Control-Firmware\MatLAB\Datalogging\Turn Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Desktop\Racecar-Control-Firmware\MatLAB\Datalogging\Turn Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62AB13A0-69DD-47C0-9E67-AF86892E32A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9536B-FC06-458B-A540-75651AA20533}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{6CAD447D-F283-4497-A26B-417F4E9F1C7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" xr2:uid="{6CAD447D-F283-4497-A26B-417F4E9F1C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,9 +160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,18 +456,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6363E717-904E-40BE-A379-78003E5BA37D}">
-  <dimension ref="A2:D33"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -476,8 +476,20 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>4*35/1.92</f>
+        <v>72.916666666666671</v>
+      </c>
+      <c r="I2">
+        <f>H2+I1</f>
+        <v>72.916666666666671</v>
+      </c>
+      <c r="J2">
+        <f>I3-I2</f>
+        <v>54.166666666666671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +502,20 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>4*26/1.92</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I12" si="0">H3+I2</f>
+        <v>127.08333333333334</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="1">I4-I3</f>
+        <v>91.145833333333343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -505,8 +529,20 @@
         <f>C4-B4</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>5*35/1.92</f>
+        <v>91.145833333333343</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>218.22916666666669</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>54.166666666666686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -517,11 +553,23 @@
         <v>139</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D11" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D11" si="2">C5-B5</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>4*26/1.92</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>272.39583333333337</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>18.229166666666686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -532,11 +580,23 @@
         <v>226</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f>1*35/1.92</f>
+        <v>18.229166666666668</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290.62500000000006</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>72.916666666666686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -547,11 +607,23 @@
         <v>286</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <f>4*35/1.92</f>
+        <v>72.916666666666671</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>363.54166666666674</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>54.166666666666686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -565,8 +637,20 @@
         <f>C8-B8</f>
         <v>-363</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>4*26/1.92</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>417.70833333333343</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>91.145833333333314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -577,11 +661,23 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-418</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f>5*35/1.92</f>
+        <v>91.145833333333343</v>
+      </c>
+      <c r="I9">
+        <f>H9+I8</f>
+        <v>508.85416666666674</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>54.166666666666629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -592,11 +688,23 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>-509</v>
+      </c>
+      <c r="H10">
+        <f>4*26/1.92</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>-509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>563.02083333333337</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>18.229166666666629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -607,11 +715,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>-563</v>
+      </c>
+      <c r="H11">
+        <f>1*35/1.92</f>
+        <v>18.229166666666668</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>-563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581.25</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>72.916666666666629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>4*35/1.92</f>
+        <v>72.916666666666671</v>
+      </c>
+      <c r="I12">
+        <f>H12+I11</f>
+        <v>654.16666666666663</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>54.166666666666629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -620,8 +754,20 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f>4*26/1.92</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I18" si="3">H13+I12</f>
+        <v>708.33333333333326</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>91.145833333333371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,8 +780,20 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>5*35/1.92</f>
+        <v>91.145833333333343</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>799.47916666666663</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>54.166666666666629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -649,8 +807,20 @@
         <f>C15-B15</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>4*26/1.92</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>853.64583333333326</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>18.229166666666629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -661,11 +831,23 @@
         <v>139</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D18" si="1">C16-B16</f>
+        <f t="shared" ref="D16:D18" si="4">C16-B16</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f>1*35/1.92</f>
+        <v>18.229166666666668</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>871.87499999999989</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>72.916666666666629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -676,11 +858,23 @@
         <v>226</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>4*35/1.92</f>
+        <v>72.916666666666671</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>944.79166666666652</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>54.166666666666629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -691,11 +885,23 @@
         <v>286</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f>4*26/1.92</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>998.95833333333314</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>91.145833333333371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -709,8 +915,20 @@
         <f>C19-B19</f>
         <v>-363</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f>5*35/1.92</f>
+        <v>91.145833333333343</v>
+      </c>
+      <c r="I19">
+        <f>H19+I18</f>
+        <v>1090.1041666666665</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>54.166666666666742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -721,11 +939,23 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:D22" si="2">C20-B20</f>
+        <f t="shared" ref="D20:D22" si="5">C20-B20</f>
         <v>-418</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f>4*26/1.92</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I21" si="6">H20+I19</f>
+        <v>1144.2708333333333</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>18.229166666666742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -736,11 +966,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-509</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>1*35/1.92</f>
+        <v>18.229166666666668</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>1162.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -751,11 +989,11 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-563</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,7 +1003,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -794,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -805,11 +1043,11 @@
         <v>139</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:D29" si="3">C27-B27</f>
+        <f t="shared" ref="D27:D29" si="7">C27-B27</f>
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -820,11 +1058,11 @@
         <v>226</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -835,11 +1073,11 @@
         <v>286</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -854,7 +1092,7 @@
         <v>-363</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -865,11 +1103,11 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:D33" si="4">C31-B31</f>
+        <f t="shared" ref="D31:D33" si="8">C31-B31</f>
         <v>-418</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -880,11 +1118,11 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-509</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -895,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-563</v>
       </c>
     </row>

--- a/MatLAB/Datalogging/Turn Test/Turns & Segments.xlsx
+++ b/MatLAB/Datalogging/Turn Test/Turns & Segments.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Desktop\Racecar-Control-Firmware\MatLAB\Datalogging\Turn Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Racecar-Control-Firmware\MatLAB\Datalogging\Turn Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9536B-FC06-458B-A540-75651AA20533}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{165E2154-AE2F-4C9F-9C2A-DDB2A539F3AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" xr2:uid="{6CAD447D-F283-4497-A26B-417F4E9F1C7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{6CAD447D-F283-4497-A26B-417F4E9F1C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Corner</t>
   </si>
@@ -42,7 +42,19 @@
     <t>Test #1</t>
   </si>
   <si>
-    <t>90 Degree Corner</t>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Test #2</t>
+  </si>
+  <si>
+    <t>Test #3</t>
+  </si>
+  <si>
+    <t>Test #4</t>
+  </si>
+  <si>
+    <t>Test #5</t>
   </si>
 </sst>
 </file>
@@ -130,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -141,6 +153,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -160,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,26 +472,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6363E717-904E-40BE-A379-78003E5BA37D}">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
       <c r="H2">
         <f>4*35/1.92</f>
         <v>72.916666666666671</v>
@@ -489,7 +504,7 @@
         <v>54.166666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,21 +516,24 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="H3">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I12" si="0">H3+I2</f>
+        <f t="shared" ref="I3:I11" si="0">H3+I2</f>
         <v>127.08333333333334</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J21" si="1">I4-I3</f>
+        <f t="shared" ref="J3:J20" si="1">I4-I3</f>
         <v>91.145833333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -529,6 +547,10 @@
         <f>C4-B4</f>
         <v>6</v>
       </c>
+      <c r="E4" s="6">
+        <f>C5-C4</f>
+        <v>60</v>
+      </c>
       <c r="H4">
         <f>5*35/1.92</f>
         <v>91.145833333333343</v>
@@ -542,7 +564,7 @@
         <v>54.166666666666686</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -556,6 +578,7 @@
         <f t="shared" ref="D5:D11" si="2">C5-B5</f>
         <v>12</v>
       </c>
+      <c r="E5" s="6"/>
       <c r="H5">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
@@ -569,7 +592,7 @@
         <v>18.229166666666686</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -583,6 +606,10 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="E6" s="6">
+        <f t="shared" ref="E6:E11" si="3">C7-C6</f>
+        <v>60</v>
+      </c>
       <c r="H6">
         <f>1*35/1.92</f>
         <v>18.229166666666668</v>
@@ -596,7 +623,7 @@
         <v>72.916666666666686</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -610,6 +637,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
+      <c r="E7" s="6"/>
       <c r="H7">
         <f>4*35/1.92</f>
         <v>72.916666666666671</v>
@@ -623,7 +651,7 @@
         <v>54.166666666666686</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -637,6 +665,10 @@
         <f>C8-B8</f>
         <v>-363</v>
       </c>
+      <c r="E8" s="6">
+        <f t="shared" ref="E8:E11" si="4">C9-C8</f>
+        <v>0</v>
+      </c>
       <c r="H8">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
@@ -650,7 +682,7 @@
         <v>91.145833333333314</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -664,6 +696,7 @@
         <f t="shared" si="2"/>
         <v>-418</v>
       </c>
+      <c r="E9" s="6"/>
       <c r="H9">
         <f>5*35/1.92</f>
         <v>91.145833333333343</v>
@@ -677,7 +710,7 @@
         <v>54.166666666666629</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -691,6 +724,10 @@
         <f t="shared" si="2"/>
         <v>-509</v>
       </c>
+      <c r="E10" s="6">
+        <f t="shared" ref="E10:E11" si="5">C11-C10</f>
+        <v>0</v>
+      </c>
       <c r="H10">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
@@ -704,7 +741,7 @@
         <v>18.229166666666629</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -718,6 +755,7 @@
         <f t="shared" si="2"/>
         <v>-563</v>
       </c>
+      <c r="E11" s="6"/>
       <c r="H11">
         <f>1*35/1.92</f>
         <v>18.229166666666668</v>
@@ -731,7 +769,7 @@
         <v>72.916666666666629</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12">
         <f>4*35/1.92</f>
         <v>72.916666666666671</v>
@@ -745,21 +783,20 @@
         <v>54.166666666666629</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
       <c r="H13">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I18" si="3">H13+I12</f>
+        <f t="shared" ref="I13:I18" si="6">H13+I12</f>
         <v>708.33333333333326</v>
       </c>
       <c r="J13">
@@ -767,7 +804,7 @@
         <v>91.145833333333371</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,13 +816,16 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="H14">
         <f>5*35/1.92</f>
         <v>91.145833333333343</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>799.47916666666663</v>
       </c>
       <c r="J14">
@@ -793,7 +833,7 @@
         <v>54.166666666666629</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -807,12 +847,16 @@
         <f>C15-B15</f>
         <v>6</v>
       </c>
+      <c r="E15" s="6">
+        <f>C16-C15</f>
+        <v>60</v>
+      </c>
       <c r="H15">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>853.64583333333326</v>
       </c>
       <c r="J15">
@@ -820,7 +864,7 @@
         <v>18.229166666666629</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -831,15 +875,16 @@
         <v>139</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D18" si="4">C16-B16</f>
+        <f t="shared" ref="D16:D22" si="7">C16-B16</f>
         <v>12</v>
       </c>
+      <c r="E16" s="6"/>
       <c r="H16">
         <f>1*35/1.92</f>
         <v>18.229166666666668</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>871.87499999999989</v>
       </c>
       <c r="J16">
@@ -847,7 +892,7 @@
         <v>72.916666666666629</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -858,15 +903,19 @@
         <v>226</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17:E22" si="8">C18-C17</f>
+        <v>60</v>
       </c>
       <c r="H17">
         <f>4*35/1.92</f>
         <v>72.916666666666671</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>944.79166666666652</v>
       </c>
       <c r="J17">
@@ -874,7 +923,7 @@
         <v>54.166666666666629</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -885,15 +934,16 @@
         <v>286</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
+      <c r="E18" s="6"/>
       <c r="H18">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>998.95833333333314</v>
       </c>
       <c r="J18">
@@ -901,7 +951,7 @@
         <v>91.145833333333371</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -915,6 +965,10 @@
         <f>C19-B19</f>
         <v>-363</v>
       </c>
+      <c r="E19" s="6">
+        <f t="shared" ref="E19:E22" si="9">C20-C19</f>
+        <v>0</v>
+      </c>
       <c r="H19">
         <f>5*35/1.92</f>
         <v>91.145833333333343</v>
@@ -928,7 +982,7 @@
         <v>54.166666666666742</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -939,15 +993,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:D22" si="5">C20-B20</f>
+        <f t="shared" ref="D20:D22" si="10">C20-B20</f>
         <v>-418</v>
       </c>
+      <c r="E20" s="6"/>
       <c r="H20">
         <f>4*26/1.92</f>
         <v>54.166666666666671</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I21" si="6">H20+I19</f>
+        <f t="shared" ref="I20:I21" si="11">H20+I19</f>
         <v>1144.2708333333333</v>
       </c>
       <c r="J20">
@@ -955,7 +1010,7 @@
         <v>18.229166666666742</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -966,19 +1021,23 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-509</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21:E22" si="12">C22-C21</f>
+        <v>0</v>
       </c>
       <c r="H21">
         <f>1*35/1.92</f>
         <v>18.229166666666668</v>
       </c>
       <c r="I21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1162.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -989,21 +1048,21 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-563</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,8 +1075,11 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1031,8 +1093,12 @@
         <f>C26-B26</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E26" s="6">
+        <f>C27-C26</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1043,11 +1109,12 @@
         <v>139</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:D29" si="7">C27-B27</f>
+        <f t="shared" ref="D27:D33" si="13">C27-B27</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1058,11 +1125,15 @@
         <v>226</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E28" s="6">
+        <f t="shared" ref="E28:E33" si="14">C29-C28</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -1073,11 +1144,12 @@
         <v>286</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -1091,8 +1163,12 @@
         <f>C30-B30</f>
         <v>-363</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E30" s="6">
+        <f t="shared" ref="E30:E33" si="15">C31-C30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -1103,11 +1179,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:D33" si="8">C31-B31</f>
+        <f t="shared" ref="D31:D33" si="16">C31-B31</f>
         <v>-418</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -1118,11 +1195,15 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-509</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:E33" si="17">C33-C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -1133,15 +1214,370 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-563</v>
       </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1">
+        <f>C37-B37</f>
+        <v>6</v>
+      </c>
+      <c r="E37" s="6">
+        <f>C38-C37</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1">
+        <v>139</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" ref="D38:D44" si="18">C38-B38</f>
+        <v>12</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>218</v>
+      </c>
+      <c r="C39" s="1">
+        <v>226</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" ref="E39:E44" si="19">C40-C39</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>272</v>
+      </c>
+      <c r="C40" s="1">
+        <v>286</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>363</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f>C41-B41</f>
+        <v>-363</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" ref="E41:E44" si="20">C42-C41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>418</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" ref="D42:D44" si="21">C42-B42</f>
+        <v>-418</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>509</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="21"/>
+        <v>-509</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" ref="E43:E44" si="22">C44-C43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>563</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="21"/>
+        <v>-563</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <v>73</v>
+      </c>
+      <c r="C48" s="1">
+        <v>79</v>
+      </c>
+      <c r="D48" s="1">
+        <f>C48-B48</f>
+        <v>6</v>
+      </c>
+      <c r="E48" s="6">
+        <f>C49-C48</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>127</v>
+      </c>
+      <c r="C49" s="1">
+        <v>139</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" ref="D49:D55" si="23">C49-B49</f>
+        <v>12</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
+        <v>218</v>
+      </c>
+      <c r="C50" s="1">
+        <v>226</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" ref="E50:E55" si="24">C51-C50</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>272</v>
+      </c>
+      <c r="C51" s="1">
+        <v>286</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>363</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <f>C52-B52</f>
+        <v>-363</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" ref="E52:E55" si="25">C53-C52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>418</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" ref="D53:D55" si="26">C53-B53</f>
+        <v>-418</v>
+      </c>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1">
+        <v>509</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="26"/>
+        <v>-509</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" ref="E54:E55" si="27">C55-C54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
+        <v>563</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="26"/>
+        <v>-563</v>
+      </c>
+      <c r="E55" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B24:D24"/>
+  <mergeCells count="25">
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
